--- a/data/shared/CCS_var.xlsx
+++ b/data/shared/CCS_var.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="12930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="12930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 Capture" sheetId="1" r:id="rId1"/>
     <sheet name="CO2 Compression" sheetId="3" r:id="rId2"/>
     <sheet name="CO2 Cap-Compress" sheetId="2" r:id="rId3"/>
-    <sheet name="Reference Values" sheetId="4" r:id="rId4"/>
+    <sheet name="bb CO2 storage" sheetId="5" r:id="rId4"/>
+    <sheet name="Reference Values" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +92,7 @@
     <author>Samantha Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1" shapeId="0">
+    <comment ref="E6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>default</t>
   </si>
@@ -244,9 +245,6 @@
     <t>meta-notes</t>
   </si>
   <si>
-    <t>t CO2 Captured / t CO2 In</t>
-  </si>
-  <si>
     <t>meta-units</t>
   </si>
   <si>
@@ -377,6 +375,39 @@
   </si>
   <si>
     <t>No compression losses assumed</t>
+  </si>
+  <si>
+    <t>t CO2 Captured / t CO2 Collected</t>
+  </si>
+  <si>
+    <t>alternative to specifying a purge in factory connections</t>
+  </si>
+  <si>
+    <t>t CO2 Collected / t CO2 in</t>
+  </si>
+  <si>
+    <t>% CO2 Collected</t>
+  </si>
+  <si>
+    <t>birat-tgr-63vpsa</t>
+  </si>
+  <si>
+    <t>birat-tgr-63vpsa-50bio</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Ancillary Emissions</t>
+  </si>
+  <si>
+    <t>CO2 lost  / CO2 in</t>
+  </si>
+  <si>
+    <t>t CO2 / t CO2 stored</t>
+  </si>
+  <si>
+    <t>birat-base</t>
   </si>
 </sst>
 </file>
@@ -583,7 +614,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -612,6 +643,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,29 +926,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -924,128 +957,152 @@
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <f>B5</f>
-        <v>0.9</v>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>C5</f>
-        <v>0.38</v>
+        <v>0.9</v>
       </c>
       <c r="D4" s="1">
         <f>D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <v>0.38</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <v>0.36</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <f>50.78/(0.8695+0.3736)*'Reference Values'!B18</f>
         <v>0.14705816104899042</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <f>3.03/1000</f>
         <v>3.0299999999999997E-3</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <f>71.7/(0.9225+0.3736+0.1722+0.0644)*'Reference Values'!B18</f>
         <v>0.16840869054609514</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <f>3.03*(671.9/(671.9+122.7))+3.18*(122.7/(671.9+122.7))</f>
         <v>3.0531625975333494</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="25">
         <v>1E-3</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1059,7 +1116,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,21 +1129,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,7 +1170,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1128,7 +1185,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1148,28 +1205,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1180,104 +1238,259 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <f>B5</f>
-        <v>0.9</v>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>C5</f>
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="D4" s="1">
         <f>D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.05</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D6" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B5</f>
+        <v>0.63</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:E8" si="0">C5</f>
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B5</f>
+        <v>0.63</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:E9" si="1">C5</f>
         <v>0.9</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1289,14 +1502,14 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1304,15 +1517,15 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="14">
         <v>12</v>
@@ -1324,7 +1537,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14">
         <v>16.042459999999998</v>
@@ -1336,7 +1549,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="14">
         <v>28.010100000000001</v>
@@ -1348,7 +1561,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="14">
         <v>44.009500000000003</v>
@@ -1360,7 +1573,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="14">
         <v>2.0158800000000001</v>
@@ -1372,7 +1585,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="14">
         <v>18.015280000000001</v>
@@ -1384,7 +1597,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="14">
         <f>(78.12+92.15+106.7)/3</f>
@@ -1397,7 +1610,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="14">
         <v>28.013400000000001</v>
@@ -1409,7 +1622,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="14">
         <v>31.998799999999999</v>
@@ -1431,7 +1644,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1439,13 +1652,13 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="22">
         <v>3.6</v>
@@ -1454,7 +1667,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="23">
         <f>B17/1000</f>
@@ -1464,7 +1677,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="18">
         <f>1/0.022414</f>

--- a/data/shared/CCS_var.xlsx
+++ b/data/shared/CCS_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CA83DC-4E31-1C4E-9EE5-1356F3A8420F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="12930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21700" windowHeight="12940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 Capture" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="bb CO2 storage" sheetId="5" r:id="rId4"/>
     <sheet name="Reference Values" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,13 +87,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Samantha Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="1" shapeId="0">
+    <comment ref="E6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -194,12 +195,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>default</t>
   </si>
@@ -408,12 +409,18 @@
   </si>
   <si>
     <t>birat-base</t>
+  </si>
+  <si>
+    <t>birat-tgr-63vpsa-100bio</t>
+  </si>
+  <si>
+    <t>birat-tgr-100vpsa-100bio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -647,8 +654,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -925,26 +932,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -970,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -990,7 +997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +1085,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1112,22 +1119,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1141,17 +1148,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1204,25 +1211,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>0.63</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:E9" si="1">C5</f>
+        <f t="shared" ref="C9:E11" si="1">C5</f>
         <v>0.9</v>
       </c>
       <c r="D9" s="1">
@@ -1389,6 +1396,64 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B6</f>
+        <v>0.63</v>
+      </c>
+      <c r="C10" s="1">
+        <f>C5</f>
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="1">
+        <f>D5</f>
+        <v>1.05</v>
+      </c>
+      <c r="E10" s="1">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="1">
+        <f>D5</f>
+        <v>1.05</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1400,21 +1465,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1425,7 +1490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1436,12 +1501,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1463,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1474,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1482,6 +1547,32 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>C6</f>
         <v>0</v>
       </c>
     </row>
@@ -1491,30 +1582,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -1523,7 +1614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -1535,7 +1626,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
@@ -1547,7 +1638,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1650,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1662,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -1583,7 +1674,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>28</v>
       </c>
@@ -1595,7 +1686,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>29</v>
       </c>
@@ -1608,7 +1699,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +1711,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>31</v>
       </c>
@@ -1632,31 +1723,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -1665,7 +1756,7 @@
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -1675,7 +1766,7 @@
       </c>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
